--- a/xlsx/街道办事处_intext.xlsx
+++ b/xlsx/街道办事处_intext.xlsx
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%82%B3%E7%B5%B1%E5%9C%B0%E7%90%86%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>中國傳統地理大區</t>
+    <t>中国传统地理大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%AD%E5%BF%83%E5%9F%8E%E5%B8%82</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83%E6%B2%BF%E9%9D%A9</t>
   </si>
   <si>
-    <t>中華民國大陸時期行政區劃沿革</t>
+    <t>中华民国大陆时期行政区划沿革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Division_levels_of_China</t>
